--- a/Manifests/PokerExampleManifest.xlsx
+++ b/Manifests/PokerExampleManifest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="4">
   <si>
     <t>Heart</t>
   </si>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A40"/>
+      <selection activeCell="A50" sqref="A50:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,27 +446,29 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <f t="shared" ref="B11:B13" si="1">B10+1</f>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B20" si="1">B12+1</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,8 +476,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,8 +484,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,8 +492,8 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" ref="B16:B23" si="2">B15+1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,8 +501,8 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,8 +510,8 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,8 +519,8 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,60 +528,62 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B30" si="2">B22+1</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" ref="B24:B26" si="3">B23+1</f>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,8 +591,7 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,8 +599,7 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,8 +607,8 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="B29:B36" si="4">B28+1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,87 +616,89 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B40" si="3">B32+1</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" ref="B37:B39" si="5">B36+1</f>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,8 +706,114 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:B49" si="6">B41+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="6"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50:B52" si="7">B49+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
